--- a/e61 Projects/Fiscal sustainability/Election newsletter/Expenditure plots.xlsx
+++ b/e61 Projects/Fiscal sustainability/Election newsletter/Expenditure plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC746C90-A992-45C7-AA00-7189324DB02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6943E12-1CF1-476C-B7B7-601BED99E4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
+    <workbookView xWindow="490" yWindow="660" windowWidth="21370" windowHeight="19730" activeTab="2" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>NGDP</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>2025-29</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>GDPD</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +496,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$31</c:f>
+              <c:f>Sheet1!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -599,7 +605,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -620,9 +626,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$31</c:f>
+              <c:f>Sheet1!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -982,7 +1002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1005,7 +1025,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$31</c:f>
+              <c:f>Sheet1!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1111,7 +1131,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,7 +1154,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$31</c:f>
+              <c:f>Sheet1!$J$2:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2552,13 +2572,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -2588,13 +2608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
@@ -2942,35 +2962,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CB1CB3-9122-47DA-92F1-D4C55E3BCA47}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -2981,23 +3004,26 @@
         <v>662676</v>
       </c>
       <c r="D2">
+        <v>48.575000000000003</v>
+      </c>
+      <c r="E2">
         <f>LOG(B2)</f>
         <v>5.1852360861414111</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f>LOG(C2)</f>
         <v>5.821301242122245</v>
-      </c>
-      <c r="F2">
-        <f>D2/D$2</f>
-        <v>1</v>
       </c>
       <c r="G2">
         <f>E2/E$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>F2/F$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -3008,31 +3034,34 @@
         <v>707404</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D31" si="0">LOG(B3)</f>
+        <v>50.825000000000003</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E31" si="0">LOG(B3)</f>
         <v>5.2482749594086986</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E31" si="1">LOG(C3)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F31" si="1">LOG(C3)</f>
         <v>5.8496675111940508</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F31" si="2">D3/D$2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="2">E3/E$2</f>
         <v>1.0121573776429913</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G31" si="3">E3/E$2</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="3">F3/F$2</f>
         <v>1.0048728399187712</v>
-      </c>
-      <c r="H3">
-        <f>F3-F2</f>
-        <v>1.2157377642991296E-2</v>
       </c>
       <c r="I3">
         <f>G3-G2</f>
+        <v>1.2157377642991296E-2</v>
+      </c>
+      <c r="J3">
+        <f>H3-H2</f>
         <v>4.8728399187711879E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -3043,31 +3072,34 @@
         <v>756448</v>
       </c>
       <c r="D4">
+        <v>52.224999999999994</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>5.2756683199723895</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>5.8787790789695746</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="2"/>
         <v>1.0174403310338513</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="3"/>
         <v>1.0098737094090624</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H31" si="4">F4-F3</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I31" si="4">G4-G3</f>
         <v>5.2829533908600457E-3</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I31" si="5">G4-G3</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J31" si="5">H4-H3</f>
         <v>5.0008694902912154E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -3078,31 +3110,34 @@
         <v>803110</v>
       </c>
       <c r="D5">
+        <v>53.85</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>5.2950015993830171</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>5.9047750335990123</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="2"/>
         <v>1.0211688554615626</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="3"/>
         <v>1.0143393698427356</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="4"/>
         <v>3.7285244277112106E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="5"/>
         <v>4.4656604336732464E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -3113,31 +3148,34 @@
         <v>864091</v>
       </c>
       <c r="D6">
+        <v>55.525000000000006</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>5.3217744321410514</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>5.9365594817343954</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="2"/>
         <v>1.0263321368075344</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="3"/>
         <v>1.0197993944683974</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="4"/>
         <v>5.1632813459718818E-3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="5"/>
         <v>5.4600246256617524E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -3148,39 +3186,42 @@
         <v>925444</v>
       </c>
       <c r="D7">
+        <v>57.674999999999997</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>5.3471484520356114</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>5.9663501440756264</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="2"/>
         <v>1.0312256497494769</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="3"/>
         <v>1.0249169207914932</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="4"/>
         <v>4.8935129419425127E-3</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="5"/>
         <v>5.1175263230958112E-3</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>B7/B2-1</f>
         <v>0.45181863282677948</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>C7/C2-1</f>
         <v>0.39652560225509892</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -3191,39 +3232,42 @@
         <v>999587</v>
       </c>
       <c r="D8">
+        <v>60.650000000000006</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>5.3804572722159563</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>5.9998205993301852</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="2"/>
         <v>1.0376494305816302</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="3"/>
         <v>1.0306665726068589</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="4"/>
         <v>6.4237808321532253E-3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="5"/>
         <v>5.7496518153656861E-3</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>B12/B7-1</f>
         <v>0.51479045173937865</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>C12/C7-1</f>
         <v>0.4094024057641521</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -3234,31 +3278,34 @@
         <v>1089025</v>
       </c>
       <c r="D9">
+        <v>63.674999999999997</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>5.4036711937624524</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>6.0370378496707646</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="2"/>
         <v>1.0421263572173411</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="3"/>
         <v>1.0370598597419207</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="4"/>
         <v>4.476926635710976E-3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="5"/>
         <v>6.3932871350618203E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3269,31 +3316,34 @@
         <v>1179633</v>
       </c>
       <c r="D10">
+        <v>66.525000000000006</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>5.434318154330505</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>6.0717469133519861</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="2"/>
         <v>1.0480367844493745</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="3"/>
         <v>1.0430222833028371</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="4"/>
         <v>5.9104272320333884E-3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="5"/>
         <v>5.9624235609163634E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -3304,31 +3354,34 @@
         <v>1261444</v>
       </c>
       <c r="D11">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>5.4997502981001976</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>6.1008679753999147</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="2"/>
         <v>1.0606557168726394</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="3"/>
         <v>1.0480247837467607</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="4"/>
         <v>1.2618932423264839E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="5"/>
         <v>5.0025004439235854E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -3339,31 +3392,34 @@
         <v>1304323</v>
       </c>
       <c r="D12">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>5.52750101098112</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>6.115385152551764</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>1.0660075875338599</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>1.0505185865149123</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="4"/>
         <v>5.3518706612205591E-3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="5"/>
         <v>2.4938027681515873E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -3374,31 +3430,34 @@
         <v>1418560</v>
       </c>
       <c r="D13">
+        <v>75.074999999999989</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>5.539204108934273</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>6.1518477096192408</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="2"/>
         <v>1.0682645914115487</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="3"/>
         <v>1.0567822302520957</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>2.2570038776887902E-3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="5"/>
         <v>6.2636437371834663E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -3409,31 +3468,34 @@
         <v>1500738</v>
       </c>
       <c r="D14">
+        <v>76.325000000000003</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>5.569411367361961</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>6.1763048793944826</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="2"/>
         <v>1.0740902197775211</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="3"/>
         <v>1.0609835537634564</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="4"/>
         <v>5.8256283659723351E-3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="5"/>
         <v>4.2013235113607106E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -3444,31 +3506,34 @@
         <v>1537270</v>
       </c>
       <c r="D15">
+        <v>76.300000000000011</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>5.5649074033801469</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>6.1867501519577894</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>1.0732216066792954</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="3"/>
         <v>1.0627778729592621</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="4"/>
         <v>-8.6861309822561239E-4</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="5"/>
         <v>1.7943191958056381E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -3479,31 +3544,34 @@
         <v>1599336</v>
       </c>
       <c r="D16">
+        <v>77.375</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>5.6089857572325403</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>6.2039397130374017</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>1.0817223486166205</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="3"/>
         <v>1.0657307455842397</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="4"/>
         <v>8.5007419373250848E-3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="5"/>
         <v>2.952872624977676E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -3514,39 +3582,42 @@
         <v>1624167</v>
       </c>
       <c r="D17">
+        <v>76.800000000000011</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>5.6149804829630661</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>6.2106306822017432</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="2"/>
         <v>1.0828784629440951</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="3"/>
         <v>1.0668801396605894</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="4"/>
         <v>1.1561143274745334E-3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="5"/>
         <v>1.1493940763496191E-3</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>B17/B12-1</f>
         <v>0.22314930246363907</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>C17/C12-1</f>
         <v>0.24521840065689249</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -3557,31 +3628,34 @@
         <v>1657916</v>
       </c>
       <c r="D18">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>5.626676994775285</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>6.219562522800123</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="2"/>
         <v>1.0851341966499295</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="3"/>
         <v>1.0684144771268846</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="4"/>
         <v>2.2557337058344284E-3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="5"/>
         <v>1.5343374662952769E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -3592,31 +3666,34 @@
         <v>1757656</v>
       </c>
       <c r="D19">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>5.6428353423638988</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>6.2449338810218924</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="2"/>
         <v>1.0882504188084152</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="3"/>
         <v>1.0727728425793004</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="4"/>
         <v>3.1162221584857264E-3</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="5"/>
         <v>4.3583654524157467E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -3627,31 +3704,34 @@
         <v>1842048</v>
       </c>
       <c r="D20">
+        <v>80.625</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>5.6558507850235316</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>6.2653009428334281</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="2"/>
         <v>1.0907605152521278</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="3"/>
         <v>1.0762715554897682</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="4"/>
         <v>2.5100964437125839E-3</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="5"/>
         <v>3.4987129104677717E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -3662,31 +3742,34 @@
         <v>1947322</v>
       </c>
       <c r="D21">
+        <v>83.375</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>5.6795169269403392</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>6.2894377703493385</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>1.0953246549602618</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="3"/>
         <v>1.0804178496793317</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="4"/>
         <v>4.564139708133963E-3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="5"/>
         <v>4.1462941895635819E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -3697,39 +3780,42 @@
         <v>1981664</v>
       </c>
       <c r="D22">
+        <v>84.924999999999997</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>5.740073590055256</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>6.2970300198181945</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="2"/>
         <v>1.1070033253445797</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="3"/>
         <v>1.0817220682986877</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="4"/>
         <v>1.1678670384317913E-2</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="5"/>
         <v>1.3042186193559235E-3</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>B22/B17-1</f>
         <v>0.33380735247367621</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f>C22/C17-1</f>
         <v>0.22011098612396385</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -3740,31 +3826,34 @@
         <v>2085822</v>
       </c>
       <c r="D23">
+        <v>87.525000000000006</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>5.815633525684941</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>6.3192772438238825</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="2"/>
         <v>1.1215754555956274</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="3"/>
         <v>1.0855437609203835</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="4"/>
         <v>1.4572130251047755E-2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="5"/>
         <v>3.8216926216958491E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -3775,31 +3864,34 @@
         <v>2330329</v>
       </c>
       <c r="D24">
+        <v>93.925000000000011</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>5.7898062611084216</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>6.3674172398233759</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="2"/>
         <v>1.1165945320373833</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="3"/>
         <v>1.0938133889635362</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="4"/>
         <v>-4.9809235582440881E-3</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="5"/>
         <v>8.269628043152677E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2023</v>
       </c>
@@ -3810,31 +3902,34 @@
         <v>2567512</v>
       </c>
       <c r="D25">
+        <v>99.95</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>5.7975535130384452</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>6.409512482073251</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>1.1180886302426183</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>1.1010446316872899</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="4"/>
         <v>1.4940982052349394E-3</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="5"/>
         <v>7.2312427237537502E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2024</v>
       </c>
@@ -3845,31 +3940,34 @@
         <v>2673672</v>
       </c>
       <c r="D26">
+        <v>102.7</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>5.8278898557911525</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>6.4271081279344395</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="2"/>
         <v>1.1239391531983207</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="3"/>
         <v>1.104067262733055</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="4"/>
         <v>5.8505229557024307E-3</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="5"/>
         <v>3.0226310457650563E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2025</v>
       </c>
@@ -3880,39 +3978,42 @@
         <v>2787609</v>
       </c>
       <c r="D27">
+        <v>105.3355</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>5.8642303601737176</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>6.4452318580016943</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="2"/>
         <v>1.1309476102442193</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="3"/>
         <v>1.1071806096143524</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="4"/>
         <v>7.0084570458985862E-3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="5"/>
         <v>3.1133468812973852E-3</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f>B27/B22-1</f>
         <v>0.33093476749982709</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>C27/C22-1</f>
         <v>0.40670113601498548</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2026</v>
       </c>
@@ -3922,32 +4023,35 @@
       <c r="C28">
         <v>2879792</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>5.8906864330215667</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>6.4593611209139441</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="2"/>
         <v>1.1360498027786263</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="3"/>
         <v>1.1096077753500839</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="4"/>
         <v>5.102192534407024E-3</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="5"/>
         <v>2.4271657357315402E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -3957,32 +4061,35 @@
       <c r="C29">
         <v>2992714</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>5.9039988821958875</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>6.476065215284347</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="2"/>
         <v>1.1386171784878831</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="3"/>
         <v>1.1124772530966629</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="4"/>
         <v>2.5673757092568028E-3</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="5"/>
         <v>2.8694777465789745E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2028</v>
       </c>
@@ -3992,32 +4099,35 @@
       <c r="C30">
         <v>3148870</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>5.9214924299339735</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>6.4981547313103887</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="2"/>
         <v>1.1419909010045572</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="3"/>
         <v>1.1162718541845098</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="4"/>
         <v>3.3737225166741158E-3</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="5"/>
         <v>3.794601087846905E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2029</v>
       </c>
@@ -4027,27 +4137,30 @@
       <c r="C31">
         <v>3320000</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>5.9433431294881869</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>6.5211380837040362</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="2"/>
         <v>1.1462049231225884</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="3"/>
         <v>1.1202200010743053</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="4"/>
         <v>4.2140221180311244E-3</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="5"/>
         <v>3.9481468897955008E-3</v>
       </c>
@@ -4066,9 +4179,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -4079,7 +4192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4203,7 @@
         <v>0.19010950161842013</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4101,7 +4214,7 @@
         <v>0.19094158946045084</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4112,7 +4225,7 @@
         <v>0.21273001417423207</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4236,7 @@
         <v>0.21387033733208721</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +4247,7 @@
         <v>0.20048781863297993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4145,7 +4258,7 @@
         <v>0.20488986085512595</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4269,7 @@
         <v>0.20166984329363091</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4167,7 +4280,7 @@
         <v>0.21151090202434011</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4178,7 +4291,7 @@
         <v>0.20627620189303195</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4189,7 +4302,7 @@
         <v>0.20800933219777118</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4200,7 +4313,7 @@
         <v>0.20430448278844096</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4211,7 +4324,7 @@
         <v>0.19935691143770412</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4222,7 +4335,7 @@
         <v>0.19885052395032768</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4233,7 +4346,7 @@
         <v>0.24599881715568331</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4244,7 +4357,7 @@
         <v>0.26307805747566188</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4255,7 +4368,7 @@
         <v>0.2180117056432804</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4266,7 +4379,7 @@
         <v>0.19737824010170157</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4277,7 +4390,7 @@
         <v>0.20700278792611812</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4288,7 +4401,7 @@
         <v>0.22507962917324489</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4299,7 +4412,7 @@
         <v>0.2208367826565252</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4310,7 +4423,7 @@
         <v>0.21394894400199951</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -4321,7 +4434,7 @@
         <v>0.20990291755455132</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -4343,16 +4456,16 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>28</v>
       </c>
@@ -4372,7 +4485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4511,7 @@
         <v>0.24801747921052542</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -4424,7 +4537,7 @@
         <v>0.25799770942186623</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -4450,7 +4563,7 @@
         <v>0.25048266961908677</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -4476,7 +4589,7 @@
         <v>0.24766341084005483</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4502,7 +4615,7 @@
         <v>0.24408649115421793</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4528,7 +4641,7 @@
         <v>0.23899563951969641</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -4554,7 +4667,7 @@
         <v>0.24831679783789276</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -4580,7 +4693,7 @@
         <v>0.24981252355135722</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -4606,7 +4719,7 @@
         <v>0.26808637065782032</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -4632,7 +4745,7 @@
         <v>0.26591334448411441</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4644,7 +4757,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -4655,7 +4768,7 @@
         <v>175860</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -4666,7 +4779,7 @@
         <v>189415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4677,7 +4790,7 @@
         <v>213694</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4688,7 +4801,7 @@
         <v>235504</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -4699,7 +4812,7 @@
         <v>260876</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -4710,7 +4823,7 @@
         <v>286367</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -4721,7 +4834,7 @@
         <v>324582</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -4732,7 +4845,7 @@
         <v>368281</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4743,7 +4856,7 @@
         <v>404704</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4754,7 +4867,7 @@
         <v>415332</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4765,7 +4878,7 @@
         <v>423281</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4776,7 +4889,7 @@
         <v>444230</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -4787,7 +4900,7 @@
         <v>466618</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4798,7 +4911,7 @@
         <v>495847</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -4809,7 +4922,7 @@
         <v>528970</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4820,7 +4933,7 @@
         <v>556666</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -4831,7 +4944,7 @@
         <v>589241</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -4842,7 +4955,7 @@
         <v>621808</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -4853,7 +4966,7 @@
         <v>662676</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -4864,7 +4977,7 @@
         <v>707404</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -4875,7 +4988,7 @@
         <v>756448</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -4886,7 +4999,7 @@
         <v>803110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>62</v>
       </c>
@@ -4897,7 +5010,7 @@
         <v>864091</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -4908,7 +5021,7 @@
         <v>925444</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -4919,7 +5032,7 @@
         <v>999587</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -4930,7 +5043,7 @@
         <v>1089025</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -4941,7 +5054,7 @@
         <v>1179633</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -4952,7 +5065,7 @@
         <v>1261444</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>68</v>
       </c>
@@ -4963,7 +5076,7 @@
         <v>1304323</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -4974,7 +5087,7 @@
         <v>1418560</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>70</v>
       </c>
@@ -4985,7 +5098,7 @@
         <v>1500738</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
@@ -4996,7 +5109,7 @@
         <v>1537270</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -5007,7 +5120,7 @@
         <v>1599336</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -5018,7 +5131,7 @@
         <v>1624167</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -5029,7 +5142,7 @@
         <v>1657916</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
@@ -5040,7 +5153,7 @@
         <v>1757656</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>76</v>
       </c>
@@ -5051,7 +5164,7 @@
         <v>1842048</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5062,7 +5175,7 @@
         <v>1947322</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>78</v>
       </c>
@@ -5073,7 +5186,7 @@
         <v>1981664</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
@@ -5084,7 +5197,7 @@
         <v>2085822</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>80</v>
       </c>
@@ -5095,7 +5208,7 @@
         <v>2330329</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
@@ -5106,7 +5219,7 @@
         <v>2567512</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -5117,7 +5230,7 @@
         <v>2673672</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
@@ -5128,7 +5241,7 @@
         <v>2787609</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>84</v>
       </c>
@@ -5139,7 +5252,7 @@
         <v>2879792</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>85</v>
       </c>
@@ -5150,7 +5263,7 @@
         <v>2992714</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>86</v>
       </c>
@@ -5161,7 +5274,7 @@
         <v>3148870</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>87</v>
       </c>
